--- a/python/Human Design/data/gates.xlsx
+++ b/python/Human Design/data/gates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederictaieb/Desktop/Python/Human Design/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94C64C40-348E-314F-B0B7-E8FFEF0D751D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7B62C1-36FA-294C-AAD9-FE1F5777A3E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19340" yWindow="3260" windowWidth="27640" windowHeight="16940" xr2:uid="{A0E6D022-E13C-0C49-BE3D-0CE941D09C70}"/>
   </bookViews>
@@ -775,10 +775,10 @@
     <t>Ego</t>
   </si>
   <si>
-    <t>FR</t>
-  </si>
-  <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Description_FR</t>
   </si>
 </sst>
 </file>
@@ -1155,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D4FC5B-1CED-0648-B85B-FA7791E99B6E}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1182,7 +1182,7 @@
         <v>242</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34">
@@ -1199,7 +1199,7 @@
         <v>243</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34">
